--- a/Portfolio/LogBoek.xlsx
+++ b/Portfolio/LogBoek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\Documents\moe\Git\in-output\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F307B662-1B54-48C6-B87B-1B68F9D3EF36}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AB64EB-5BA3-44C5-8BF2-E1DDF0D516E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="-108" windowWidth="22008" windowHeight="13176" xr2:uid="{021E3666-19C0-46B0-B7DD-9E7E9AD441BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>9:31 - 10:30</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Onderzoek document aangevult + Oplossing van gister gecomment op probleem op github + input commands verranderd naar robotjs code</t>
+  </si>
+  <si>
+    <t>Test uitgevoerd en opgenome</t>
+  </si>
+  <si>
+    <t>Test Voorbereiden</t>
   </si>
 </sst>
 </file>
@@ -435,35 +441,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EF1346-14AB-4FFA-98C3-0F476BE9ADC8}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
+        <v>43640</v>
+      </c>
+      <c r="C1" s="1">
         <v>43641</v>
       </c>
-      <c r="C1" s="1">
-        <v>43642</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1">
+        <v>43643</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -471,7 +483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -479,7 +491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -490,7 +502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -500,8 +512,11 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -509,7 +524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -517,7 +532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
